--- a/input/capacity/additional-units.xlsx
+++ b/input/capacity/additional-units.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Remove_units_by_node" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Capacity!$A$1:$J$135</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Capacity!$A$1:$J$136</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="45">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">Distributed Energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE03_industry</t>
   </si>
 </sst>
 </file>
@@ -297,13 +300,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J136"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1084,7 +1087,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>31</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1153,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>31</v>
       </c>
@@ -1170,7 +1173,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1190,7 +1193,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>33</v>
       </c>
@@ -1236,7 +1239,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>33</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>33</v>
       </c>
@@ -1279,7 +1282,7 @@
         <v>4158</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
@@ -1299,7 +1302,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -1316,13 +1319,13 @@
         <v>2025</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G45" s="1" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>35</v>
       </c>
@@ -1339,13 +1342,13 @@
         <v>2025</v>
       </c>
       <c r="F46" s="1" t="n">
-        <v>300</v>
+        <v>360</v>
       </c>
       <c r="G46" s="1" t="n">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>37</v>
       </c>
@@ -1408,7 +1411,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>37</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>7512</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>37</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>37</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>23300</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>39</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>39</v>
       </c>
@@ -1520,7 +1523,7 @@
         <v>10650</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>39</v>
       </c>
@@ -1560,7 +1563,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>41</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
@@ -1629,7 +1632,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>41</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>41</v>
       </c>
@@ -1672,7 +1675,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>41</v>
       </c>
@@ -1692,7 +1695,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>41</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1759,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>31</v>
       </c>
@@ -1779,7 +1782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
@@ -1800,7 +1803,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>31</v>
       </c>
@@ -1821,7 +1824,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>33</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>33</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>33</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>33</v>
       </c>
@@ -1909,7 +1912,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>33</v>
       </c>
@@ -1930,7 +1933,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>35</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>35</v>
       </c>
@@ -1973,7 +1976,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>35</v>
       </c>
@@ -1996,7 +1999,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>35</v>
       </c>
@@ -2016,7 +2019,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>35</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>37</v>
       </c>
@@ -2056,7 +2059,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>37</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>37</v>
       </c>
@@ -2102,7 +2105,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>37</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>37</v>
       </c>
@@ -2145,7 +2148,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>39</v>
       </c>
@@ -2165,7 +2168,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>39</v>
       </c>
@@ -2185,7 +2188,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>39</v>
       </c>
@@ -2208,7 +2211,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>39</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>39</v>
       </c>
@@ -2274,7 +2277,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>39</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>41</v>
       </c>
@@ -2314,7 +2317,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>41</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>41</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>41</v>
       </c>
@@ -2380,7 +2383,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>41</v>
       </c>
@@ -2400,7 +2403,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>41</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>41</v>
       </c>
@@ -3245,19 +3248,30 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="1"/>
+      <c r="A136" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="F136" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="G136" s="1" t="n">
+        <v>1172</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J135">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="FI00"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J136"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/input/capacity/additional-units.xlsx
+++ b/input/capacity/additional-units.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="45">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -303,10 +303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B132" activeCellId="0" sqref="B132"/>
+      <selection pane="topLeft" activeCell="F140" activeCellId="0" sqref="F140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3267,6 +3267,29 @@
         <v>586</v>
       </c>
       <c r="G136" s="1" t="n">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="F137" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="G137" s="1" t="n">
         <v>1172</v>
       </c>
     </row>

--- a/input/capacity/additional-units.xlsx
+++ b/input/capacity/additional-units.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Capacity" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Remove_units_by_node" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Capacity!$A$1:$J$136</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="45">
   <si>
     <t xml:space="preserve">Node</t>
   </si>
@@ -306,7 +305,7 @@
   <dimension ref="A1:J137"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F140" activeCellId="0" sqref="F140"/>
+      <selection pane="topLeft" activeCell="A131" activeCellId="0" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3304,61 +3303,4 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B7"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.94"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>